--- a/wolf/Excel/Sound_音效表.xlsx
+++ b/wolf/Excel/Sound_音效表.xlsx
@@ -174,7 +174,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -202,6 +202,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -664,152 +670,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -830,6 +836,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1157,7 +1169,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1260,654 +1272,660 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>10001</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>134704</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <v>400</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>10002</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>14245</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <v>200</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>10003</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>120839</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
         <v>200</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>10004</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>117609</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>10005</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>75354</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>10006</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>12694</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>10007</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>117609</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
         <v>3</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <v>400</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="5">
         <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>10008</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>27955</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>10009</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>146244</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>3</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" ht="13.5" spans="1:8">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>10010</v>
       </c>
       <c r="B14" s="6">
         <v>185618</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="5">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" ht="13.5" spans="1:8">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
         <v>10011</v>
       </c>
       <c r="B15" s="6">
         <v>185618</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>10012</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>148621</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>10013</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>148627</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>7</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="5">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
         <v>10014</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>148643</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>7</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="5">
         <v>0</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1">
+      <c r="A19" s="5">
         <v>10015</v>
       </c>
-      <c r="B19" s="2">
-        <v>148644</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="7">
+        <v>63341</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <v>6</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="5">
         <v>0</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1">
+      <c r="A20" s="5">
         <v>10016</v>
       </c>
-      <c r="B20" s="2">
-        <v>148645</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="7">
+        <v>63341</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <v>6</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="5">
         <v>0</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1">
+      <c r="A21" s="5">
         <v>10017</v>
       </c>
-      <c r="B21" s="2">
-        <v>148646</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="7">
+        <v>63341</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
         <v>6</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="5">
         <v>0</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1">
+      <c r="A22" s="5">
         <v>10018</v>
       </c>
-      <c r="B22" s="2">
-        <v>148647</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="7">
+        <v>63341</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
         <v>6</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="5">
         <v>0</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1">
+      <c r="A23" s="5">
         <v>10019</v>
       </c>
-      <c r="B23" s="2">
-        <v>148650</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="7">
+        <v>63341</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="5">
         <v>6</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="5">
         <v>0</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1">
+      <c r="A24" s="5">
         <v>10020</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <v>14026</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <v>2</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
         <v>3</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="5">
         <v>200</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1">
+      <c r="A25" s="5">
         <v>10021</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="5">
         <v>12616</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
         <v>2</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
         <v>6</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="5">
         <v>200</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1">
+      <c r="A26" s="5">
         <v>10022</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="5">
         <v>27468</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="5">
         <v>2</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
         <v>3</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="5">
         <v>200</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1">
+      <c r="A27" s="5">
         <v>10023</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="5">
         <v>14182</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="5">
         <v>2</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
         <v>3</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="5">
         <v>200</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1">
+      <c r="A28" s="5">
         <v>10024</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="5">
         <v>117609</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="5">
         <v>2</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
         <v>3</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="5">
         <v>400</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="5">
         <v>4000</v>
       </c>
     </row>
-    <row r="29" ht="13.5" spans="1:6">
-      <c r="A29" s="1">
+    <row r="29" ht="13.5" spans="1:8">
+      <c r="A29" s="5">
         <v>10025</v>
       </c>
       <c r="B29" s="6">
         <v>184562</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1">
+      <c r="A30" s="5">
         <v>10026</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="5">
         <v>122569</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="5">
         <v>2</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
         <v>6</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="5">
         <v>400</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
+    <row r="31" spans="1:8">
+      <c r="A31" s="5">
         <v>10027</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="5">
         <v>157471</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="5">
         <v>10028</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="5">
         <v>116336</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
         <v>3</v>
       </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="2"/>
